--- a/000 TABLAS GENERALES/Temporalidad.xlsx
+++ b/000 TABLAS GENERALES/Temporalidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB568E-4FF9-44A9-B503-3FED80F34573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12459F78-F578-43EC-93AE-F23001B2AD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4056" yWindow="3132" windowWidth="15336" windowHeight="8736" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -287,6 +287,12 @@
   <si>
     <t>Bimensual</t>
   </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Periodo 2012-2020</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -367,6 +373,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1758" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="B2:H1758" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1759" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="B2:H1759" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{E338B66C-F10D-441F-A533-32A5EE66B82B}" name="ID"/>
     <tableColumn id="1" xr3:uid="{6D6559FB-CE9D-48F0-AD61-9D3FE9DE09E5}" name="nombre">
@@ -754,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB179E17-F532-4AA3-8BA4-63B46A1EA950}">
-  <dimension ref="A2:H1758"/>
+  <dimension ref="A2:H1759"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F513" sqref="F513"/>
+    <sheetView tabSelected="1" topLeftCell="A1739" workbookViewId="0">
+      <selection activeCell="C1760" sqref="C1760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54048,7 +54055,7 @@
         <v>2050</v>
       </c>
       <c r="B1758">
-        <f t="shared" ref="B1758" si="995">+B1757+1</f>
+        <f t="shared" ref="B1758:B1759" si="995">+B1757+1</f>
         <v>879</v>
       </c>
       <c r="C1758" t="str">
@@ -54072,6 +54079,33 @@
       <c r="H1758" s="3" t="str">
         <f t="shared" si="981"/>
         <v>INSERT INTO temporalidad VALUES (879,'noviembre-diciembre 2050','Bimensual','Bimensual','1/11/2050','31/12/2050');</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1759">
+        <f t="shared" si="995"/>
+        <v>880</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1759" s="2" t="str">
+        <f>+"1/11/"&amp;2012</f>
+        <v>1/11/2012</v>
+      </c>
+      <c r="G1759" s="2" t="str">
+        <f>+"31/12/"&amp;2020</f>
+        <v>31/12/2020</v>
+      </c>
+      <c r="H1759" s="5" t="str">
+        <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1759&amp;",'"&amp;C1759&amp;"','"&amp;D1759&amp;"','"&amp;E1759&amp;"','"&amp;F1759&amp;"','"&amp;G1759&amp;"');"</f>
+        <v>INSERT INTO temporalidad VALUES (880,'Periodo 2012-2020','Periodo','Periodo','1/11/2012','31/12/2020');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/Temporalidad.xlsx
+++ b/000 TABLAS GENERALES/Temporalidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ECEAFD-A64B-4374-AA20-F5EA104C30A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F2B92-1656-4564-B560-32B2D2AFDF38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -302,6 +302,27 @@
   <si>
     <t>31/12/2020</t>
   </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>Último día</t>
+  </si>
+  <si>
+    <t>Última semana</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>Último mes</t>
+  </si>
 </sst>
 </file>
 
@@ -456,8 +477,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1761" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="B2:H1761" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1764" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="B2:H1764" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{E338B66C-F10D-441F-A533-32A5EE66B82B}" name="ID"/>
     <tableColumn id="1" xr3:uid="{6D6559FB-CE9D-48F0-AD61-9D3FE9DE09E5}" name="nombre">
@@ -776,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB179E17-F532-4AA3-8BA4-63B46A1EA950}">
-  <dimension ref="A2:H1761"/>
+  <dimension ref="A2:H1764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1742" workbookViewId="0">
-      <selection activeCell="F1761" sqref="F1761:G1761"/>
+    <sheetView tabSelected="1" topLeftCell="A1741" workbookViewId="0">
+      <selection activeCell="C1764" sqref="C1764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54172,7 +54193,7 @@
         <v>2025</v>
       </c>
       <c r="B1733">
-        <f t="shared" ref="B1733:B1759" si="146">+B1732+1</f>
+        <f t="shared" ref="B1733:B1764" si="146">+B1732+1</f>
         <v>1731</v>
       </c>
       <c r="C1733" t="str">
@@ -55002,6 +55023,7 @@
     </row>
     <row r="1760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1760">
+        <f t="shared" si="146"/>
         <v>1758</v>
       </c>
       <c r="C1760" t="s">
@@ -55028,6 +55050,7 @@
     </row>
     <row r="1761" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1761">
+        <f t="shared" si="146"/>
         <v>1759</v>
       </c>
       <c r="C1761" t="s">
@@ -55048,6 +55071,87 @@
       <c r="H1761" s="5" t="str">
         <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1761&amp;",'"&amp;C1761&amp;"','"&amp;D1761&amp;"','"&amp;E1761&amp;"','"&amp;F1761&amp;"','"&amp;G1761&amp;"');"</f>
         <v>INSERT INTO temporalidad VALUES (1759,'Periodo 2018-2020','Periodo','Periodo','43405','31/12/2020');</v>
+      </c>
+    </row>
+    <row r="1762" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1762">
+        <f t="shared" si="146"/>
+        <v>1760</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1762" s="2">
+        <f ca="1">+TODAY()</f>
+        <v>44329</v>
+      </c>
+      <c r="G1762" s="2">
+        <f ca="1">+TODAY()</f>
+        <v>44329</v>
+      </c>
+      <c r="H1762" s="5" t="str">
+        <f ca="1">+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1762&amp;",'"&amp;C1762&amp;"','"&amp;D1762&amp;"','"&amp;E1762&amp;"','"&amp;F1762&amp;"','"&amp;G1762&amp;"');"</f>
+        <v>INSERT INTO temporalidad VALUES (1760,'Último día','Día','Diario','44329','44329');</v>
+      </c>
+    </row>
+    <row r="1763" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1763">
+        <f t="shared" si="146"/>
+        <v>1761</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1763" s="2">
+        <f ca="1">+Temporalidad[[#This Row],[fecha_termino]]-7</f>
+        <v>44322</v>
+      </c>
+      <c r="G1763" s="2">
+        <f ca="1">+TODAY()</f>
+        <v>44329</v>
+      </c>
+      <c r="H1763" s="5" t="str">
+        <f ca="1">+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1763&amp;",'"&amp;C1763&amp;"','"&amp;D1763&amp;"','"&amp;E1763&amp;"','"&amp;F1763&amp;"','"&amp;G1763&amp;"');"</f>
+        <v>INSERT INTO temporalidad VALUES (1761,'Última semana','Semana','Semanal','44322','44329');</v>
+      </c>
+    </row>
+    <row r="1764" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1764">
+        <f t="shared" si="146"/>
+        <v>1762</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1764" s="2">
+        <f ca="1">+Temporalidad[[#This Row],[fecha_termino]]-30</f>
+        <v>44299</v>
+      </c>
+      <c r="G1764" s="2">
+        <f ca="1">+TODAY()</f>
+        <v>44329</v>
+      </c>
+      <c r="H1764" s="5" t="str">
+        <f ca="1">+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1764&amp;",'"&amp;C1764&amp;"','"&amp;D1764&amp;"','"&amp;E1764&amp;"','"&amp;F1764&amp;"','"&amp;G1764&amp;"');"</f>
+        <v>INSERT INTO temporalidad VALUES (1762,'Último mes','Mes','Mensual','44299','44329');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/Temporalidad.xlsx
+++ b/000 TABLAS GENERALES/Temporalidad.xlsx
@@ -5,27 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7381F57-A82F-48B7-BD05-226AE47B5A25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E098AD-26EE-45E4-8DD0-B7B447916FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -317,6 +326,9 @@
   <si>
     <t>Periodo 2010-2019</t>
   </si>
+  <si>
+    <t>Periodo 2008-2019</t>
+  </si>
 </sst>
 </file>
 
@@ -471,8 +483,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1765" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="B2:H1765" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1766" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="B2:H1766" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{E338B66C-F10D-441F-A533-32A5EE66B82B}" name="ID"/>
     <tableColumn id="1" xr3:uid="{6D6559FB-CE9D-48F0-AD61-9D3FE9DE09E5}" name="nombre">
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB179E17-F532-4AA3-8BA4-63B46A1EA950}">
-  <dimension ref="A2:H1765"/>
+  <dimension ref="A2:H1766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1752" workbookViewId="0">
-      <selection activeCell="D1765" sqref="D1765"/>
+    <sheetView tabSelected="1" topLeftCell="A1744" workbookViewId="0">
+      <selection activeCell="A1766" sqref="A1766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54187,7 +54199,7 @@
         <v>2025</v>
       </c>
       <c r="B1733">
-        <f t="shared" ref="B1733:B1765" si="146">+B1732+1</f>
+        <f t="shared" ref="B1733:B1766" si="146">+B1732+1</f>
         <v>1731</v>
       </c>
       <c r="C1733" t="str">
@@ -55084,15 +55096,15 @@
       </c>
       <c r="F1762" s="2">
         <f ca="1">+TODAY()</f>
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="G1762" s="2">
         <f ca="1">+TODAY()</f>
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="H1762" s="5" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>INSERT INTO temporalidad VALUES (1760,'Último día','Día','Diario','44330','44330');</v>
+        <v>INSERT INTO temporalidad VALUES (1760,'Último día','Día','Diario','44332','44332');</v>
       </c>
     </row>
     <row r="1763" spans="2:8" x14ac:dyDescent="0.25">
@@ -55111,15 +55123,15 @@
       </c>
       <c r="F1763" s="2">
         <f ca="1">+Temporalidad[[#This Row],[fecha_termino]]-7</f>
-        <v>44323</v>
+        <v>44325</v>
       </c>
       <c r="G1763" s="2">
         <f ca="1">+TODAY()</f>
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="H1763" s="5" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>INSERT INTO temporalidad VALUES (1761,'Última semana','Semana','Semanal','44323','44330');</v>
+        <v>INSERT INTO temporalidad VALUES (1761,'Última semana','Semana','Semanal','44325','44332');</v>
       </c>
     </row>
     <row r="1764" spans="2:8" x14ac:dyDescent="0.25">
@@ -55138,15 +55150,15 @@
       </c>
       <c r="F1764" s="2">
         <f ca="1">+Temporalidad[[#This Row],[fecha_termino]]-30</f>
-        <v>44300</v>
+        <v>44302</v>
       </c>
       <c r="G1764" s="2">
         <f ca="1">+TODAY()</f>
-        <v>44330</v>
+        <v>44332</v>
       </c>
       <c r="H1764" s="5" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>INSERT INTO temporalidad VALUES (1762,'Último mes','Mes','Mensual','44300','44330');</v>
+        <v>INSERT INTO temporalidad VALUES (1762,'Último mes','Mes','Mensual','44302','44332');</v>
       </c>
     </row>
     <row r="1765" spans="2:8" x14ac:dyDescent="0.25">
@@ -55174,6 +55186,30 @@
       <c r="H1765" s="5" t="str">
         <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1765&amp;",'"&amp;C1765&amp;"','"&amp;D1765&amp;"','"&amp;E1765&amp;"','"&amp;F1765&amp;"','"&amp;G1765&amp;"');"</f>
         <v>INSERT INTO temporalidad VALUES (1763,'Periodo 2010-2019','Periodo','Periodo','1/1/2010','31/12/2019');</v>
+      </c>
+    </row>
+    <row r="1766" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1766">
+        <f t="shared" si="146"/>
+        <v>1764</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1766" s="2" t="str">
+        <f>+"1/1/"&amp;2008</f>
+        <v>1/1/2008</v>
+      </c>
+      <c r="G1766" s="2" t="str">
+        <f>+"31/12/"&amp;2019</f>
+        <v>31/12/2019</v>
+      </c>
+      <c r="H1766" s="5" t="str">
+        <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1766&amp;",'"&amp;C1766&amp;"','"&amp;D1766&amp;"','"&amp;E1766&amp;"','"&amp;F1766&amp;"','"&amp;G1766&amp;"');"</f>
+        <v>INSERT INTO temporalidad VALUES (1764,'Periodo 2008-2019','','Periodo','1/1/2008','31/12/2019');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/Temporalidad.xlsx
+++ b/000 TABLAS GENERALES/Temporalidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E098AD-26EE-45E4-8DD0-B7B447916FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54494397-0C99-43FB-BF4C-087339533985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -806,7 +806,7 @@
   <dimension ref="A2:H1766"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1744" workbookViewId="0">
-      <selection activeCell="A1766" sqref="A1766"/>
+      <selection activeCell="D1768" sqref="D1768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55196,6 +55196,9 @@
       <c r="C1766" t="s">
         <v>97</v>
       </c>
+      <c r="D1766" t="s">
+        <v>84</v>
+      </c>
       <c r="E1766" t="s">
         <v>84</v>
       </c>
@@ -55209,7 +55212,7 @@
       </c>
       <c r="H1766" s="5" t="str">
         <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1766&amp;",'"&amp;C1766&amp;"','"&amp;D1766&amp;"','"&amp;E1766&amp;"','"&amp;F1766&amp;"','"&amp;G1766&amp;"');"</f>
-        <v>INSERT INTO temporalidad VALUES (1764,'Periodo 2008-2019','','Periodo','1/1/2008','31/12/2019');</v>
+        <v>INSERT INTO temporalidad VALUES (1764,'Periodo 2008-2019','Periodo','Periodo','1/1/2008','31/12/2019');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/Temporalidad.xlsx
+++ b/000 TABLAS GENERALES/Temporalidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54494397-0C99-43FB-BF4C-087339533985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D1DFD-DB03-4CD5-AB36-8D9ACCB441FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -329,6 +320,12 @@
   <si>
     <t>Periodo 2008-2019</t>
   </si>
+  <si>
+    <t>Periodo 2018-2019</t>
+  </si>
+  <si>
+    <t>Periodo 2019-2020</t>
+  </si>
 </sst>
 </file>
 
@@ -483,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1766" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="B2:H1766" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1768" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="B2:H1768" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{E338B66C-F10D-441F-A533-32A5EE66B82B}" name="ID"/>
     <tableColumn id="1" xr3:uid="{6D6559FB-CE9D-48F0-AD61-9D3FE9DE09E5}" name="nombre">
@@ -803,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB179E17-F532-4AA3-8BA4-63B46A1EA950}">
-  <dimension ref="A2:H1766"/>
+  <dimension ref="A2:H1768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1744" workbookViewId="0">
-      <selection activeCell="D1768" sqref="D1768"/>
+    <sheetView tabSelected="1" topLeftCell="A1759" workbookViewId="0">
+      <selection activeCell="C1766" sqref="C1766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55096,15 +55093,15 @@
       </c>
       <c r="F1762" s="2">
         <f ca="1">+TODAY()</f>
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="G1762" s="2">
         <f ca="1">+TODAY()</f>
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="H1762" s="5" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>INSERT INTO temporalidad VALUES (1760,'Último día','Día','Diario','44332','44332');</v>
+        <v>INSERT INTO temporalidad VALUES (1760,'Último día','Día','Diario','44333','44333');</v>
       </c>
     </row>
     <row r="1763" spans="2:8" x14ac:dyDescent="0.25">
@@ -55123,15 +55120,15 @@
       </c>
       <c r="F1763" s="2">
         <f ca="1">+Temporalidad[[#This Row],[fecha_termino]]-7</f>
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="G1763" s="2">
         <f ca="1">+TODAY()</f>
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="H1763" s="5" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>INSERT INTO temporalidad VALUES (1761,'Última semana','Semana','Semanal','44325','44332');</v>
+        <v>INSERT INTO temporalidad VALUES (1761,'Última semana','Semana','Semanal','44326','44333');</v>
       </c>
     </row>
     <row r="1764" spans="2:8" x14ac:dyDescent="0.25">
@@ -55150,15 +55147,15 @@
       </c>
       <c r="F1764" s="2">
         <f ca="1">+Temporalidad[[#This Row],[fecha_termino]]-30</f>
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="G1764" s="2">
         <f ca="1">+TODAY()</f>
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="H1764" s="5" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>INSERT INTO temporalidad VALUES (1762,'Último mes','Mes','Mensual','44302','44332');</v>
+        <v>INSERT INTO temporalidad VALUES (1762,'Último mes','Mes','Mensual','44303','44333');</v>
       </c>
     </row>
     <row r="1765" spans="2:8" x14ac:dyDescent="0.25">
@@ -55213,6 +55210,58 @@
       <c r="H1766" s="5" t="str">
         <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1766&amp;",'"&amp;C1766&amp;"','"&amp;D1766&amp;"','"&amp;E1766&amp;"','"&amp;F1766&amp;"','"&amp;G1766&amp;"');"</f>
         <v>INSERT INTO temporalidad VALUES (1764,'Periodo 2008-2019','Periodo','Periodo','1/1/2008','31/12/2019');</v>
+      </c>
+    </row>
+    <row r="1767" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1767">
+        <v>1765</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1767" s="2" t="str">
+        <f>+"1/1/"&amp;2018</f>
+        <v>1/1/2018</v>
+      </c>
+      <c r="G1767" s="2" t="str">
+        <f>+"31/12/"&amp;2019</f>
+        <v>31/12/2019</v>
+      </c>
+      <c r="H1767" s="5" t="str">
+        <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1767&amp;",'"&amp;C1767&amp;"','"&amp;D1767&amp;"','"&amp;E1767&amp;"','"&amp;F1767&amp;"','"&amp;G1767&amp;"');"</f>
+        <v>INSERT INTO temporalidad VALUES (1765,'Periodo 2018-2019','Periodo','Periodo','1/1/2018','31/12/2019');</v>
+      </c>
+    </row>
+    <row r="1768" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1768">
+        <v>1766</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1768" s="2" t="str">
+        <f>+"1/1/"&amp;2019</f>
+        <v>1/1/2019</v>
+      </c>
+      <c r="G1768" s="2" t="str">
+        <f>+"31/12/"&amp;2020</f>
+        <v>31/12/2020</v>
+      </c>
+      <c r="H1768" s="5" t="str">
+        <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1768&amp;",'"&amp;C1768&amp;"','"&amp;D1768&amp;"','"&amp;E1768&amp;"','"&amp;F1768&amp;"','"&amp;G1768&amp;"');"</f>
+        <v>INSERT INTO temporalidad VALUES (1766,'Periodo 2019-2020','Periodo','Periodo','1/1/2019','31/12/2020');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/Temporalidad.xlsx
+++ b/000 TABLAS GENERALES/Temporalidad.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B32C0-08AE-4E6E-976C-E19D2FF0068B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7757796-15A2-468C-97B2-3610B097801E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{207D3546-5873-4FDB-949F-E35B1694E319}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="835">
   <si>
     <t>ID</t>
   </si>
@@ -2527,6 +2527,9 @@
   </si>
   <si>
     <t>Periodo 1979-2020</t>
+  </si>
+  <si>
+    <t>Periodo 2017-2019</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2614,6 +2617,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2681,8 +2685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1770" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="B2:H1770" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD3E5ECF-A5C3-4C48-93AE-4F6FD29537FF}" name="Temporalidad" displayName="Temporalidad" ref="B2:H1771" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="B2:H1771" xr:uid="{808D47C9-C3AE-4E33-869A-81E9F7F21B76}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{E338B66C-F10D-441F-A533-32A5EE66B82B}" name="ID"/>
     <tableColumn id="1" xr3:uid="{6D6559FB-CE9D-48F0-AD61-9D3FE9DE09E5}" name="nombre">
@@ -3001,10 +3005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB179E17-F532-4AA3-8BA4-63B46A1EA950}">
-  <dimension ref="A2:H1770"/>
+  <dimension ref="A2:H1771"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1759" workbookViewId="0">
-      <selection activeCell="F1771" sqref="F1771"/>
+      <selection activeCell="B1772" sqref="B1772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57517,6 +57521,32 @@
         <v>INSERT INTO temporalidad VALUES (1768,'Periodo 1979-2020','Periodo','Periodo','1/1/1979','31/12/2020');</v>
       </c>
     </row>
+    <row r="1771" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1771">
+        <v>1769</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>834</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1771" s="2" t="str">
+        <f>+"1/1/"&amp;2017</f>
+        <v>1/1/2017</v>
+      </c>
+      <c r="G1771" s="2" t="str">
+        <f>+"31/12/"&amp;2019</f>
+        <v>31/12/2019</v>
+      </c>
+      <c r="H1771" s="5" t="str">
+        <f>+"INSERT INTO "&amp;$H$2&amp;" VALUES ("&amp;B1771&amp;",'"&amp;C1771&amp;"','"&amp;D1771&amp;"','"&amp;E1771&amp;"','"&amp;F1771&amp;"','"&amp;G1771&amp;"');"</f>
+        <v>INSERT INTO temporalidad VALUES (1769,'Periodo 2017-2019','Periodo','Periodo','1/1/2017','31/12/2019');</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
